--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_19.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_14_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>477783.0931770013</v>
+        <v>475261.5885864823</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>280.9667343657128</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>11.46482978351936</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>157.4040920724897</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>141.0526494037118</v>
       </c>
       <c r="D4" t="n">
-        <v>1.781160222249673</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>252.5062532483149</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>207.9203655174088</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,22 +1054,22 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>65.53176995176695</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4682886668216</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1139,7 +1139,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>302.1411527635721</v>
+        <v>124.2781875329272</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1294,22 +1294,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>98.93144715837022</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.6293919502451603</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1345,10 +1345,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1357,7 +1357,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.16086499484859</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>282.4564782720076</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2008,10 +2008,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>119.6760079449696</v>
+        <v>99.97427419833411</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892481</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>19.91555826189058</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>176.5196562849262</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2369,7 +2369,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2482,13 +2482,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>36.43062059490413</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983395</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>93.62264337260652</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>94.05951414665388</v>
+        <v>136.1078891637031</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3193,13 +3193,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>41.02686156550228</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3424,16 +3424,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>71.79687029690999</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>26.13627195705825</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3706,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.94196613735054</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4138,10 +4138,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>72.8097849205479</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.2292142534452</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1184.34337792405</v>
+        <v>335.0515687555919</v>
       </c>
       <c r="C2" t="n">
-        <v>1184.34337792405</v>
+        <v>335.0515687555919</v>
       </c>
       <c r="D2" t="n">
-        <v>826.0776793172992</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E2" t="n">
-        <v>440.2894267190549</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F2" t="n">
-        <v>433.3439259698515</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2297.177631519366</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1944.408976249251</v>
+        <v>1485.256499056605</v>
       </c>
       <c r="X2" t="n">
-        <v>1570.943217988171</v>
+        <v>1111.790740795525</v>
       </c>
       <c r="Y2" t="n">
-        <v>1570.943217988171</v>
+        <v>721.6514088197137</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M3" t="n">
-        <v>1227.201367341572</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1614.486495938517</v>
+        <v>1715.293511287797</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>2047.363946463959</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2294.546680296256</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.04593830764924</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="C4" t="n">
-        <v>53.04593830764924</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G4" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020476</v>
@@ -4525,13 +4525,13 @@
         <v>570.4526592426272</v>
       </c>
       <c r="W4" t="n">
-        <v>281.0354892056666</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="X4" t="n">
-        <v>53.04593830764924</v>
+        <v>342.4631083446099</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.04593830764924</v>
+        <v>342.4631083446099</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1295.021456295685</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="C5" t="n">
-        <v>926.0589393552737</v>
+        <v>1099.386652222403</v>
       </c>
       <c r="D5" t="n">
-        <v>926.0589393552737</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
@@ -4565,22 +4565,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362818</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
         <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872924</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
         <v>2360.886721764998</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V5" t="n">
-        <v>2231.276441056585</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="W5" t="n">
-        <v>1878.507785786471</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="X5" t="n">
-        <v>1505.042027525391</v>
+        <v>1876.125824262337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.021456295685</v>
+        <v>1485.986492286525</v>
       </c>
     </row>
     <row r="6">
@@ -4644,22 +4644,22 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.1489515180662</v>
+        <v>298.3188265310615</v>
       </c>
       <c r="L6" t="n">
-        <v>1057.327935297105</v>
+        <v>593.0223835625333</v>
       </c>
       <c r="M6" t="n">
-        <v>1420.589954256325</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N6" t="n">
-        <v>1807.87508285327</v>
+        <v>1552.492103330612</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P6" t="n">
         <v>2447.023413292609</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>582.4335451919575</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="C7" t="n">
-        <v>516.2398381699707</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800312</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
         <v>51.24678656800312</v>
@@ -4723,7 +4723,7 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J7" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020476</v>
@@ -4732,7 +4732,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096588</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1363.692725037735</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1140.71424423247</v>
       </c>
       <c r="U7" t="n">
-        <v>1347.327782578335</v>
+        <v>851.5959067363081</v>
       </c>
       <c r="V7" t="n">
-        <v>1092.643294372448</v>
+        <v>596.9114185304212</v>
       </c>
       <c r="W7" t="n">
-        <v>803.2261243354876</v>
+        <v>596.9114185304212</v>
       </c>
       <c r="X7" t="n">
-        <v>803.2261243354876</v>
+        <v>368.9218676324039</v>
       </c>
       <c r="Y7" t="n">
-        <v>582.4335451919575</v>
+        <v>368.9218676324039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,13 +4778,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694473</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1491.569348694473</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1133.303650087722</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E8" t="n">
         <v>828.1105664881544</v>
@@ -4802,7 +4802,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995486</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>560.1023745137405</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="C10" t="n">
-        <v>560.1023745137405</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="D10" t="n">
-        <v>409.9857351014048</v>
+        <v>215.0609594592686</v>
       </c>
       <c r="E10" t="n">
-        <v>409.9857351014048</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>67.1478658768755</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X10" t="n">
-        <v>741.7508393439803</v>
+        <v>617.5020034330385</v>
       </c>
       <c r="Y10" t="n">
-        <v>741.7508393439803</v>
+        <v>396.7094242895083</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,55 +5036,55 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756265</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913851</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1140.291933891999</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.889897446606</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797186</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1144.284195611858</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5276,28 +5276,28 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075806</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5312,16 +5312,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>530.3315352860773</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>382.4184417036842</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1692.151506498379</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1437.467018292492</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1148.049848255532</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>920.0602973575143</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.2677182139842</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,16 +5510,16 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,10 +5528,10 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M18" t="n">
-        <v>691.1951506745237</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121602</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925216</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="E19" t="n">
-        <v>296.7882229101285</v>
+        <v>194.8007783998245</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806534</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5835,10 +5835,10 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
         <v>1307.627092998424</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5935,25 +5935,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5975,31 +5975,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925216</v>
+        <v>194.80077839983</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>194.80077839983</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>194.80077839983</v>
       </c>
       <c r="G25" t="n">
         <v>93.81666304797187</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="26">
@@ -6212,34 +6212,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1702.079034721979</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2253.988764961266</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>705.9324428257312</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>887.5809076559709</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,37 +6452,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,28 +6537,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>956.9553291057244</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="C31" t="n">
-        <v>788.0191461778176</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D31" t="n">
-        <v>637.9025067654818</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830887</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1500.747069396417</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1272.7575184984</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1051.96493935487</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,22 +6777,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>114.2598873597757</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>448.1846595309963</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>943.510265746755</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1540.888753373307</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N33" t="n">
-        <v>1540.888753373307</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O33" t="n">
-        <v>2092.798483612594</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P33" t="n">
         <v>2516.421633107662</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>800.5007694647277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>631.5645865368208</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>481.447947124485</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E37" t="n">
-        <v>333.5348535420919</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F37" t="n">
         <v>261.0127623330919</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,22 +7154,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7248,19 +7248,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
         <v>1344.266747951538</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>983.3556038098237</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>814.4194208819168</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>664.3027814695811</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E40" t="n">
-        <v>516.389687887188</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>369.4997403892776</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>202.3036411041575</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
         <v>489.9894131830887</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>982.1492342949674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,31 +7634,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,13 +7780,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>800.5007694647277</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C46" t="n">
-        <v>631.5645865368208</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D46" t="n">
-        <v>481.447947124485</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E46" t="n">
         <v>407.9027098310023</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>982.1492342949674</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O3" t="n">
-        <v>255.8421700460943</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>154.0169020165191</v>
       </c>
       <c r="R3" t="n">
         <v>20.93778120154988</v>
@@ -8292,31 +8292,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621887</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>211.0329012241551</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>60.5001630614949</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154988</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -22547,25 +22547,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>73.71630725497015</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22598,13 +22598,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>316.2874286866156</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22702,25 +22702,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>129.2446880019952</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>146.8343127959627</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.237055564881302e-13</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>134.6711151870887</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23501,7 +23501,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856948</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>3.727996117236557</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>25.74504007796168</v>
+        <v>45.44677382459713</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24136,13 +24136,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462278</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012319</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>110.0033420516648</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,13 +24370,13 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>110.003342051665</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>65.54986409392934</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>43.26526345294991</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,16 +24835,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.77246603528341</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -25123,10 +25123,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>139.9994244361423</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,16 +25312,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>73.62417772602126</v>
+        <v>43.72409101823416</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,13 +25357,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>114.1584408891656</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,13 +25594,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>154.8900140445868</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26026,10 +26026,10 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>73.62417772602127</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>62.35543909864958</v>
       </c>
     </row>
   </sheetData>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1037651.130114931</v>
+        <v>1037651.13011493</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>354580.0968631203</v>
+        <v>354580.0968631202</v>
       </c>
       <c r="C2" t="n">
-        <v>389994.8406855348</v>
+        <v>389994.8406855346</v>
       </c>
       <c r="D2" t="n">
-        <v>389994.8406855345</v>
+        <v>389994.8406855344</v>
       </c>
       <c r="E2" t="n">
         <v>383394.6348527529</v>
@@ -26329,31 +26329,31 @@
         <v>383394.634852753</v>
       </c>
       <c r="H2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="I2" t="n">
+        <v>383394.6348527531</v>
+      </c>
+      <c r="J2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="K2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="L2" t="n">
         <v>383394.634852753</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>383394.6348527528</v>
+      </c>
+      <c r="N2" t="n">
+        <v>383394.6348527529</v>
+      </c>
+      <c r="O2" t="n">
         <v>383394.6348527527</v>
       </c>
-      <c r="J2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>383394.6348527528</v>
-      </c>
-      <c r="L2" t="n">
-        <v>383394.6348527528</v>
-      </c>
-      <c r="M2" t="n">
-        <v>383394.6348527529</v>
-      </c>
-      <c r="N2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="O2" t="n">
-        <v>383394.634852753</v>
-      </c>
-      <c r="P2" t="n">
-        <v>383394.634852753</v>
       </c>
     </row>
     <row r="3">
@@ -26369,16 +26369,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403377</v>
+        <v>192627.1404403376</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26390,13 @@
         <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819055</v>
+        <v>48293.97000819068</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551175</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,28 +26415,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>94171.3899794375</v>
+        <v>94171.38997943752</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921025</v>
+        <v>136726.2736921024</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810789</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="G4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="G4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756593</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.200356756592</v>
@@ -26445,19 +26445,19 @@
         <v>9337.200356756592</v>
       </c>
       <c r="L4" t="n">
+        <v>9337.200356756592</v>
+      </c>
+      <c r="M4" t="n">
         <v>9337.200356756606</v>
       </c>
-      <c r="M4" t="n">
-        <v>9337.20035675659</v>
-      </c>
       <c r="N4" t="n">
-        <v>9337.200356756608</v>
+        <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="P4" t="n">
-        <v>9337.20035675659</v>
+        <v>9337.200356756592</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
         <v>92937.77243984473</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-947280.8491320815</v>
+        <v>-947467.2425206209</v>
       </c>
       <c r="C6" t="n">
-        <v>160330.7945535876</v>
+        <v>160330.7945535874</v>
       </c>
       <c r="D6" t="n">
-        <v>909.5245556955924</v>
+        <v>909.5245556956361</v>
       </c>
       <c r="E6" t="n">
-        <v>-52477.55713526566</v>
+        <v>-52512.29506070159</v>
       </c>
       <c r="F6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466537</v>
       </c>
       <c r="G6" t="n">
-        <v>272934.9046720891</v>
+        <v>272900.1667466536</v>
       </c>
       <c r="H6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466536</v>
       </c>
       <c r="I6" t="n">
-        <v>272934.904672089</v>
+        <v>272900.1667466537</v>
       </c>
       <c r="J6" t="n">
-        <v>105329.7268621067</v>
+        <v>105294.9889366709</v>
       </c>
       <c r="K6" t="n">
-        <v>272934.904672089</v>
+        <v>272900.1667466535</v>
       </c>
       <c r="L6" t="n">
-        <v>224640.9346638985</v>
+        <v>224606.1967384629</v>
       </c>
       <c r="M6" t="n">
-        <v>187879.8767365774</v>
+        <v>187845.1388111416</v>
       </c>
       <c r="N6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466535</v>
       </c>
       <c r="O6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466533</v>
       </c>
       <c r="P6" t="n">
-        <v>272934.9046720893</v>
+        <v>272900.1667466534</v>
       </c>
     </row>
   </sheetData>
@@ -26738,7 +26738,7 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="D3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>640.584832100039</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,16 +26963,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.711808475759</v>
+        <v>155.7118084757589</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022538</v>
+        <v>190.8166233022537</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973554</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,13 +27439,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>191.8368766449233</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,22 +27534,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>50.58729217994212</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>26.19417169491601</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>102.176788372368</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>178.3175731386448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,22 +27774,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>101.7150511468609</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>26.19417169491581</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27859,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>79.78921730868967</v>
+        <v>257.6521825393346</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28014,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>46.48960086456103</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>165.3964163087831</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,10 +28065,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28776,7 +28776,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29235,7 +29235,7 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>547.6926421044568</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32075,37 +32075,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>732.4825987614915</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32309,22 +32309,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>754.000239683233</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,7 +32333,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32555,13 +32555,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>244.0266243181833</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33035,13 +33035,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>163.4402738502018</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>608.2694430035897</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33497,7 +33497,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>145.7021085929663</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,16 +33506,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>407.2177391203972</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>270.9716933356906</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>177.7456072667729</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,13 +33968,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>264.8708611242914</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33983,7 +33983,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>405.6377363145776</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,22 +34205,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>752.2150000824579</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>516.654215558583</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>537.6437863443698</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
@@ -34784,19 +34784,19 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>640.5848321000387</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="O3" t="n">
-        <v>591.2668520422174</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>270.4976243473736</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939907</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>186.5874962434849</v>
       </c>
       <c r="L6" t="n">
-        <v>640.584832100039</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820406</v>
+        <v>577.9642335061957</v>
       </c>
       <c r="N6" t="n">
         <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>395.924845057618</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q6" t="n">
         <v>116.4807223308546</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>405.5586081824385</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>590.3485648394733</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35811,19 +35811,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,22 +35957,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>622.6585275998997</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,7 +35981,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36203,13 +36203,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>101.892590396165</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066261</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36683,13 +36683,13 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>29.46586643587157</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>469.7150632237154</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37145,7 +37145,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>18.86448192629965</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,16 +37154,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>265.0837051983789</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K35" t="n">
         <v>479.454324036777</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>132.4173135558164</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,13 +37616,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>127.0294221499325</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,22 +37853,22 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>620.8732879991246</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>374.5201816365647</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
